--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72510722-5D68-400D-89D5-6CE36B510DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E931C56-707D-4398-A426-793432305AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Vocalist fees</t>
   </si>
   <si>
-    <t>Instrumentalist fees</t>
-  </si>
-  <si>
     <t>Music director</t>
   </si>
   <si>
-    <t>Conductor</t>
-  </si>
-  <si>
     <t>Dramaturg</t>
   </si>
   <si>
@@ -117,12 +111,6 @@
     <t xml:space="preserve">Housing for performers </t>
   </si>
   <si>
-    <t>Other 1</t>
-  </si>
-  <si>
-    <t>Other 2</t>
-  </si>
-  <si>
     <t>Other 3</t>
   </si>
   <si>
@@ -136,12 +124,6 @@
   </si>
   <si>
     <t>INELIGIBLE EXPENSES</t>
-  </si>
-  <si>
-    <t>Composer commissioning fee</t>
-  </si>
-  <si>
-    <t>Librettist commissioning fee</t>
   </si>
   <si>
     <t xml:space="preserve">Living expenses </t>
@@ -227,6 +209,276 @@
   <si>
     <t>Composer [David Quang Pham] 
 Librettist(s) [David Quang Pham]</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>Filmographer</t>
+  </si>
+  <si>
+    <t>prospective: St. Augustine Catholic Church, Washington, D.C.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jordan Alexandria Ealey (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.jordanealey.com/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://www.ellipsesplay.com/events/idea_opera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |DQP has UI/UX background</t>
+    </r>
+  </si>
+  <si>
+    <t>125 prints of 12-page programs (playbillder.com/pub/print_service_pricing)</t>
+  </si>
+  <si>
+    <t>https://www.ellipsesplay.com/events/2021-7-15/ellipses-playbill-2021-7-15.pdf</t>
+  </si>
+  <si>
+    <t>Based on Musical Monument's budget (https://youtu.be/mj61UdV1cTs)</t>
+  </si>
+  <si>
+    <t>College Park Marriott Hotel (DQP stayed in 2017 &amp; 2019)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quote: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://hartfordrents.com/locations/baltimore-md-audio-rental/</t>
+    </r>
+  </si>
+  <si>
+    <t>Emergency fund for 5 personnel or daily occurrences</t>
+  </si>
+  <si>
+    <t>https://www.care.com/c/how-much-does-child-care-cost</t>
+  </si>
+  <si>
+    <r>
+      <t>Composer commissioning fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DQP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Librettist commissioning fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DQP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Instrumentalist fees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Music Director)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Conductor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Music Director)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 nights ($125/two-bed room) for JLC &amp; DQP</t>
+  </si>
+  <si>
+    <t>JLC: NY &lt;=&gt; MD ($79) &amp; DQP: MI &lt;=&gt; MD ($227) | (fueleconomy.gov/trip/)</t>
+  </si>
+  <si>
+    <t>JLC will make those decisions</t>
+  </si>
+  <si>
+    <t>$15 for breakfast, lunch, dinner for 20 personnel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 ($300/) | resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
+    </r>
+  </si>
+  <si>
+    <t>Legend: DQP = author | JLC = facilitator</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pianist | resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -236,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +498,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -445,10 +719,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -518,6 +793,9 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,7 +842,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,363 +1133,447 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3600</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
+      <c r="A8" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="10">
+        <v>850</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1200</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1200</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
+      <c r="A18" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
+      <c r="A20" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
+      <c r="A26" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10">
+        <v>306</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
+      <c r="A28" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="10">
+        <v>250</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2"/>
+      <c r="A30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>65</v>
+      </c>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="10">
+        <v>150</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
+      <c r="A33" s="46" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
+      <c r="A34" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
+      <c r="A35" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>0</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="C39" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
+      <c r="A40" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>34</v>
+      <c r="A41" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="10">
+        <v>300</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>37</v>
+      <c r="A44" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
+      <c r="A48" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,117 +1582,117 @@
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
+      <c r="A52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>0</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>0</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="36"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B67" s="4">
         <f>SUM(B61:B66)</f>
@@ -1342,7 +1705,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14">
@@ -1352,17 +1715,17 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>0</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B71" s="29"/>
       <c r="C71" s="30">
@@ -1372,12 +1735,12 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>0</v>
+        <v>-11688</v>
       </c>
     </row>
   </sheetData>
@@ -1389,8 +1752,21 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.ellipsesplay.com/events/idea_opera/music_director" xr:uid="{6D6FD437-03F7-4276-A475-C27FD18BC550}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.jordanealey.com/" xr:uid="{153AFC21-3A47-42C7-A1C1-773FCCF6D6D4}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://www.ellipsesplay.com/events/idea_opera/performers" xr:uid="{3FAF6CE3-F95F-42E0-819F-DD42063D44C0}"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://www.ellipsesplay.com/events/idea_opera/vocal_coach" xr:uid="{6DE05206-A894-44B6-AB72-9962E9BCCF62}"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://www.ellipsesplay.com/events/idea_opera/sound_designer" xr:uid="{50E80694-DFA9-4D3D-97F8-6DAD305FC59F}"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{520E334E-E529-47B8-9E4D-CABE3E0F9A92}"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
+    <hyperlink ref="B22" r:id="rId8" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{AB45C416-A831-4D18-8706-F2AFD5A1BDDA}"/>
+    <hyperlink ref="B19" r:id="rId10" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
+    <hyperlink ref="B25" r:id="rId11" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E931C56-707D-4398-A426-793432305AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDAE400-8CF0-48B9-A7A9-692AEA69007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,42 +220,6 @@
     <t>prospective: St. Augustine Catholic Church, Washington, D.C.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jordan Alexandria Ealey (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.jordanealey.com/)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://www.ellipsesplay.com/events/idea_opera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |DQP has UI/UX background</t>
-    </r>
-  </si>
-  <si>
     <t>125 prints of 12-page programs (playbillder.com/pub/print_service_pricing)</t>
   </si>
   <si>
@@ -290,9 +254,6 @@
     </r>
   </si>
   <si>
-    <t>Emergency fund for 5 personnel or daily occurrences</t>
-  </si>
-  <si>
     <t>https://www.care.com/c/how-much-does-child-care-cost</t>
   </si>
   <si>
@@ -375,7 +336,115 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">12 ($300/) | resources: </t>
+      <t xml:space="preserve">pianist | resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://www.ellipsesplay.com/events/idea_opera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |DQP has a UI/UX background</t>
+    </r>
+  </si>
+  <si>
+    <t>Legend: DQP = author | JLC = facilitator | JAE = dramaturg</t>
+  </si>
+  <si>
+    <t>JAE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 ($300 each) | resources: </t>
     </r>
     <r>
       <rPr>
@@ -390,95 +459,7 @@
     </r>
   </si>
   <si>
-    <t>Legend: DQP = author | JLC = facilitator</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pianist | resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
-    </r>
+    <t>Accessibility: Contingency funds for 5 personnel or daily occurrences</t>
   </si>
 </sst>
 </file>
@@ -723,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -841,6 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1167,7 +1149,7 @@
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
@@ -1195,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10">
         <v>3600</v>
@@ -1203,7 +1185,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
@@ -1213,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" s="10">
         <v>850</v>
@@ -1221,7 +1203,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
@@ -1230,8 +1212,8 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>60</v>
+      <c r="B11" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1242,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10">
         <v>500</v>
@@ -1253,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10">
         <v>500</v>
@@ -1264,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -1297,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10">
         <v>500</v>
@@ -1315,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="10">
         <v>500</v>
@@ -1333,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1344,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1355,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10">
         <v>182</v>
@@ -1366,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C24" s="10">
         <v>150</v>
@@ -1377,7 +1359,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -1393,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="10">
         <v>306</v>
@@ -1411,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="10">
         <v>250</v>
@@ -1422,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="10"/>
     </row>
@@ -1431,7 +1413,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1442,7 +1424,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1499,14 +1481,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -1516,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="10">
         <v>300</v>
@@ -1555,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" s="10"/>
     </row>
@@ -1760,10 +1742,10 @@
     <hyperlink ref="B14" r:id="rId5" display="https://www.ellipsesplay.com/events/idea_opera/sound_designer" xr:uid="{50E80694-DFA9-4D3D-97F8-6DAD305FC59F}"/>
     <hyperlink ref="B12" r:id="rId6" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{520E334E-E529-47B8-9E4D-CABE3E0F9A92}"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
-    <hyperlink ref="B22" r:id="rId8" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{AB45C416-A831-4D18-8706-F2AFD5A1BDDA}"/>
-    <hyperlink ref="B19" r:id="rId10" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
-    <hyperlink ref="B25" r:id="rId11" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
+    <hyperlink ref="B21" r:id="rId8" xr:uid="{AB45C416-A831-4D18-8706-F2AFD5A1BDDA}"/>
+    <hyperlink ref="B19" r:id="rId9" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
+    <hyperlink ref="B22" r:id="rId11" display="https://www.ellipsesplay.com/events/idea_opera |DQP has UI/UX background" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDAE400-8CF0-48B9-A7A9-692AEA69007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F9621-E031-4888-BD89-D3F409044899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Vocalist fees</t>
   </si>
@@ -217,15 +217,9 @@
     <t>Filmographer</t>
   </si>
   <si>
-    <t>prospective: St. Augustine Catholic Church, Washington, D.C.</t>
-  </si>
-  <si>
     <t>125 prints of 12-page programs (playbillder.com/pub/print_service_pricing)</t>
   </si>
   <si>
-    <t>https://www.ellipsesplay.com/events/2021-7-15/ellipses-playbill-2021-7-15.pdf</t>
-  </si>
-  <si>
     <t>Based on Musical Monument's budget (https://youtu.be/mj61UdV1cTs)</t>
   </si>
   <si>
@@ -288,7 +282,7 @@
   </si>
   <si>
     <r>
-      <t>Instrumentalist fees</t>
+      <t>Conductor</t>
     </r>
     <r>
       <rPr>
@@ -302,41 +296,46 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Conductor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Music Director)</t>
-    </r>
-  </si>
-  <si>
-    <t>2 nights ($125/two-bed room) for JLC &amp; DQP</t>
-  </si>
-  <si>
     <t>JLC: NY &lt;=&gt; MD ($79) &amp; DQP: MI &lt;=&gt; MD ($227) | (fueleconomy.gov/trip/)</t>
   </si>
   <si>
-    <t>JLC will make those decisions</t>
-  </si>
-  <si>
-    <t>$15 for breakfast, lunch, dinner for 20 personnel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pianist | resources: </t>
+    <r>
+      <t>https://www.ellipsesplay.com/events/idea_opera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |DQP has a UI/UX background</t>
+    </r>
+  </si>
+  <si>
+    <t>JAE</t>
+  </si>
+  <si>
+    <t>3 workshops (2 rehearsal workshop, 1 presentational workshop)</t>
+  </si>
+  <si>
+    <t>Legend: DQP = author | JLC = facilitator, general manager | JAE = dramaturg</t>
+  </si>
+  <si>
+    <t>4 different crowdsourcing/fundraising platforms used by JLC</t>
+  </si>
+  <si>
+    <t>DQP is in TRU Producer Development &amp; Mentorship Program until January 2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 ($150 each) | Resources: </t>
     </r>
     <r>
       <rPr>
@@ -347,6 +346,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
     </r>
   </si>
@@ -358,7 +379,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">resources: </t>
+      <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +401,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">resources: </t>
+      <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
@@ -402,7 +423,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">resources: </t>
+      <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
@@ -417,34 +438,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>https://www.ellipsesplay.com/events/idea_opera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |DQP has a UI/UX background</t>
-    </r>
-  </si>
-  <si>
-    <t>Legend: DQP = author | JLC = facilitator | JAE = dramaturg</t>
-  </si>
-  <si>
-    <t>JAE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">12 ($300 each) | resources: </t>
+    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
+  </si>
+  <si>
+    <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
+  </si>
+  <si>
+    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
+  </si>
+  <si>
+    <t>Instrumentalist fees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
@@ -455,11 +471,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
-    </r>
-  </si>
-  <si>
-    <t>Accessibility: Contingency funds for 5 personnel or daily occurrences</t>
+      <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Samples: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/graphics</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
+  </si>
+  <si>
+    <t>$45 for 3 breakfasts, lunches, dinners for 21 personnel</t>
+  </si>
+  <si>
+    <t>3 months payroll for administrator at $17/hr</t>
   </si>
 </sst>
 </file>
@@ -777,6 +821,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,7 +867,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1123,43 +1167,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
@@ -1177,33 +1221,37 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10">
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
@@ -1212,8 +1260,8 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>80</v>
+      <c r="B11" s="48" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1224,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10">
         <v>500</v>
@@ -1235,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10">
         <v>500</v>
@@ -1246,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -1256,11 +1304,11 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
+      <c r="B15" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="10">
-        <v>1200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1268,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10">
-        <v>1200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="10">
         <v>500</v>
@@ -1297,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10">
         <v>500</v>
@@ -1307,7 +1355,7 @@
       <c r="A20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1326,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1337,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="10">
         <v>182</v>
@@ -1348,10 +1396,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" s="10">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,7 +1407,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -1375,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="10">
         <v>306</v>
@@ -1393,10 +1441,10 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C29" s="10">
-        <v>250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="10"/>
     </row>
@@ -1413,7 +1461,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1424,7 +1472,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1458,15 +1506,15 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>11388</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -1481,14 +1529,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -1498,48 +1546,66 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C42" s="10">
-        <v>300</v>
+        <v>945</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2400</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="10">
+        <v>520</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="10">
+        <v>300</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="10">
+        <v>232</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="C47" s="10">
+        <v>258</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
@@ -1555,7 +1621,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>300</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,23 +1630,23 @@
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
@@ -1589,7 +1655,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>11388</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1665,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>300</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1675,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>11688</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1768,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>11688</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,7 +1788,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-11688</v>
+        <v>-12973</v>
       </c>
     </row>
   </sheetData>
@@ -1742,13 +1808,14 @@
     <hyperlink ref="B14" r:id="rId5" display="https://www.ellipsesplay.com/events/idea_opera/sound_designer" xr:uid="{50E80694-DFA9-4D3D-97F8-6DAD305FC59F}"/>
     <hyperlink ref="B12" r:id="rId6" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{520E334E-E529-47B8-9E4D-CABE3E0F9A92}"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
-    <hyperlink ref="B21" r:id="rId8" xr:uid="{AB45C416-A831-4D18-8706-F2AFD5A1BDDA}"/>
-    <hyperlink ref="B19" r:id="rId9" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
-    <hyperlink ref="B25" r:id="rId10" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
-    <hyperlink ref="B22" r:id="rId11" display="https://www.ellipsesplay.com/events/idea_opera |DQP has UI/UX background" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
+    <hyperlink ref="B19" r:id="rId8" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
+    <hyperlink ref="B22" r:id="rId10" display="https://www.ellipsesplay.com/events/idea_opera |DQP has UI/UX background" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
+    <hyperlink ref="B8" r:id="rId11" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId12"/>
+  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F9621-E031-4888-BD89-D3F409044899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AC513-8C6D-46BE-8293-DF1983C4F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Vocalist fees</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t xml:space="preserve">Elder care </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other grant 1 </t>
   </si>
   <si>
     <t>Other grant 2</t>
@@ -316,9 +313,6 @@
     <t>JAE</t>
   </si>
   <si>
-    <t>3 workshops (2 rehearsal workshop, 1 presentational workshop)</t>
-  </si>
-  <si>
     <t>Legend: DQP = author | JLC = facilitator, general manager | JAE = dramaturg</t>
   </si>
   <si>
@@ -335,7 +329,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">12 ($150 each) | Resources: </t>
+      <t xml:space="preserve">Resources: </t>
     </r>
     <r>
       <rPr>
@@ -346,164 +340,176 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
+    </r>
+  </si>
+  <si>
+    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
+  </si>
+  <si>
+    <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
+  </si>
+  <si>
+    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
+  </si>
+  <si>
+    <t>Instrumentalist fees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Samples: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/graphics</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
+  </si>
+  <si>
+    <t>Other grant 1 (Yip Harburg Foundation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 ($150 each) | Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
-    </r>
-  </si>
-  <si>
-    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
-  </si>
-  <si>
-    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
-  </si>
-  <si>
-    <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
-  </si>
-  <si>
-    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
-  </si>
-  <si>
-    <t>Instrumentalist fees</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Samples: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/graphics</t>
-    </r>
-  </si>
-  <si>
-    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
-  </si>
-  <si>
-    <t>$45 for 3 breakfasts, lunches, dinners for 21 personnel</t>
-  </si>
-  <si>
-    <t>3 months payroll for administrator at $17/hr</t>
+    <t>$45 for 3 breakfasts, lunches, dinners for 19 personnel</t>
+  </si>
+  <si>
+    <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
+  </si>
+  <si>
+    <t>Props are necessary. 10 celestial costumes are optional</t>
+  </si>
+  <si>
+    <t>3 months payroll for administrator (DQP-JLC) at $17/hr</t>
+  </si>
+  <si>
+    <t>Requested: $3,865 (ineligable expenses minus admin.) | Status: Pending</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -1178,7 +1184,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="54"/>
@@ -1193,7 +1199,7 @@
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
@@ -1221,18 +1227,18 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="10">
         <v>500</v>
@@ -1243,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10">
         <v>500</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
@@ -1261,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1272,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="10">
         <v>500</v>
@@ -1283,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10">
         <v>500</v>
@@ -1294,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -1305,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="10">
         <v>400</v>
@@ -1316,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10">
         <v>200</v>
@@ -1327,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10">
         <v>500</v>
@@ -1345,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10">
         <v>500</v>
@@ -1363,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1374,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1385,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="10">
         <v>182</v>
@@ -1396,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="10">
         <v>180</v>
@@ -1407,7 +1413,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -1423,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="10">
         <v>306</v>
@@ -1441,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="10">
         <v>600</v>
@@ -1452,16 +1458,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1469,10 +1475,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1506,7 +1512,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>8318</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,14 +1535,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -1546,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="10">
-        <v>945</v>
+        <v>855</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1563,10 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="10">
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,7 +1574,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="10">
         <v>520</v>
@@ -1579,7 +1585,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C45" s="10">
         <v>300</v>
@@ -1590,7 +1596,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="10">
         <v>232</v>
@@ -1601,18 +1607,22 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" s="10">
         <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1700</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
@@ -1621,7 +1631,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>4655</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,14 +1641,14 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="50"/>
       <c r="C51" s="51"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="54"/>
@@ -1655,7 +1665,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>8318</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1675,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>4655</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1685,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>12973</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,21 +1722,23 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1768,7 +1780,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>12973</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,12 +1795,12 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-12973</v>
+        <v>-15483</v>
       </c>
     </row>
   </sheetData>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AC513-8C6D-46BE-8293-DF1983C4F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A9450-0262-4A15-910B-155E61638B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,14 +475,26 @@
     <t>Other grant 1 (Yip Harburg Foundation)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 ($150 each) | Resources: </t>
+    <t>$45 for 3 breakfasts, lunches, dinners for 19 personnel</t>
+  </si>
+  <si>
+    <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
+  </si>
+  <si>
+    <t>3 months payroll for administrator (DQP-JLC) at $17/hr</t>
+  </si>
+  <si>
+    <t>Requested: $4,000 ($3,955 ineligable expenses minus admin.) | Status: Pending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 ($300 each) | Resources: </t>
     </r>
     <r>
       <rPr>
@@ -497,19 +509,7 @@
     </r>
   </si>
   <si>
-    <t>$45 for 3 breakfasts, lunches, dinners for 19 personnel</t>
-  </si>
-  <si>
-    <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
-  </si>
-  <si>
-    <t>Props are necessary. 10 celestial costumes are optional</t>
-  </si>
-  <si>
-    <t>3 months payroll for administrator (DQP-JLC) at $17/hr</t>
-  </si>
-  <si>
-    <t>Requested: $3,865 (ineligable expenses minus admin.) | Status: Pending</t>
+    <t>Props are necessary and 10 celestial costumes are optional</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>8018</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="10">
-        <v>855</v>
+        <v>945</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="10">
         <v>3600</v>
@@ -1585,7 +1585,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="10">
         <v>300</v>
@@ -1618,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="10">
         <v>1700</v>
@@ -1631,7 +1631,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>7465</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>8018</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>7465</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>15483</v>
+        <v>17073</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>84</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="10"/>
     </row>
@@ -1780,7 +1780,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>15483</v>
+        <v>17073</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-15483</v>
+        <v>-17073</v>
       </c>
     </row>
   </sheetData>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\considerations\2021-9-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\idea_opera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A9450-0262-4A15-910B-155E61638B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CC3CB-D61C-4BAD-838E-658E0444E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,18 +208,9 @@
 Librettist(s) [David Quang Pham]</t>
   </si>
   <si>
-    <t>Videographer</t>
-  </si>
-  <si>
-    <t>Filmographer</t>
-  </si>
-  <si>
     <t>125 prints of 12-page programs (playbillder.com/pub/print_service_pricing)</t>
   </si>
   <si>
-    <t>Based on Musical Monument's budget (https://youtu.be/mj61UdV1cTs)</t>
-  </si>
-  <si>
     <t>College Park Marriott Hotel (DQP stayed in 2017 &amp; 2019)</t>
   </si>
   <si>
@@ -278,6 +269,159 @@
     </r>
   </si>
   <si>
+    <t>JLC: NY &lt;=&gt; MD ($79) &amp; DQP: MI &lt;=&gt; MD ($227) | (fueleconomy.gov/trip/)</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.ellipsesplay.com/events/idea_opera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |DQP has a UI/UX background</t>
+    </r>
+  </si>
+  <si>
+    <t>JAE</t>
+  </si>
+  <si>
+    <t>Legend: DQP = author | JLC = facilitator, general manager | JAE = dramaturg</t>
+  </si>
+  <si>
+    <t>4 different crowdsourcing/fundraising platforms used by JLC</t>
+  </si>
+  <si>
+    <t>DQP is in TRU Producer Development &amp; Mentorship Program until January 2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
+    </r>
+  </si>
+  <si>
+    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
+  </si>
+  <si>
+    <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
+  </si>
+  <si>
+    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
+  </si>
+  <si>
+    <t>Instrumentalist fees</t>
+  </si>
+  <si>
+    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
+  </si>
+  <si>
+    <t>Other grant 1 (Yip Harburg Foundation)</t>
+  </si>
+  <si>
+    <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
+  </si>
+  <si>
+    <t>Based on Musical Monument's budget (https://youtu.be/mj61UdV1cTs) by JLC</t>
+  </si>
+  <si>
+    <t>Videographer (ViOp affiliate)</t>
+  </si>
+  <si>
+    <t>Filmographer (ViOp affiliate)</t>
+  </si>
+  <si>
+    <t>3 months payroll for administrator(s) (DQP-JLC) at $17/hr</t>
+  </si>
+  <si>
     <r>
       <t>Conductor</t>
     </r>
@@ -289,47 +433,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Music Director)</t>
-    </r>
-  </si>
-  <si>
-    <t>JLC: NY &lt;=&gt; MD ($79) &amp; DQP: MI &lt;=&gt; MD ($227) | (fueleconomy.gov/trip/)</t>
-  </si>
-  <si>
-    <r>
-      <t>https://www.ellipsesplay.com/events/idea_opera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |DQP has a UI/UX background</t>
-    </r>
-  </si>
-  <si>
-    <t>JAE</t>
-  </si>
-  <si>
-    <t>Legend: DQP = author | JLC = facilitator, general manager | JAE = dramaturg</t>
-  </si>
-  <si>
-    <t>4 different crowdsourcing/fundraising platforms used by JLC</t>
-  </si>
-  <si>
-    <t>DQP is in TRU Producer Development &amp; Mentorship Program until January 2022</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
+      <t xml:space="preserve"> (Music director)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Guitarist &amp; Pianist ($500each) Resources: </t>
     </r>
     <r>
       <rPr>
@@ -340,18 +455,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/music_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
+      <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
+    </r>
+  </si>
+  <si>
+    <t>$45 for 3 breakfasts, lunches, dinners for 20 personnel</t>
+  </si>
+  <si>
+    <t>Requested: $3,200 ($3,110 ineligable expenses minus admin.) | Status: Pending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 ($300each) | Resources: </t>
     </r>
     <r>
       <rPr>
@@ -362,18 +483,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/stage_director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
+      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
+    </r>
+  </si>
+  <si>
+    <t>Props are necessary ($300) and 10 celestial costumes ($60each) are optional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Samples: </t>
     </r>
     <r>
       <rPr>
@@ -384,132 +508,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/vocal_coach</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/sound_designer</t>
-    </r>
-  </si>
-  <si>
-    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
-  </si>
-  <si>
-    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
-  </si>
-  <si>
-    <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
-  </si>
-  <si>
-    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
-  </si>
-  <si>
-    <t>Instrumentalist fees</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Samples: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>https://www.ellipsesplay.com/graphics</t>
     </r>
-  </si>
-  <si>
-    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
-  </si>
-  <si>
-    <t>Other grant 1 (Yip Harburg Foundation)</t>
-  </si>
-  <si>
-    <t>$45 for 3 breakfasts, lunches, dinners for 19 personnel</t>
-  </si>
-  <si>
-    <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
-  </si>
-  <si>
-    <t>3 months payroll for administrator (DQP-JLC) at $17/hr</t>
-  </si>
-  <si>
-    <t>Requested: $4,000 ($3,955 ineligable expenses minus admin.) | Status: Pending</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 ($300 each) | Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
-    </r>
-  </si>
-  <si>
-    <t>Props are necessary and 10 celestial costumes are optional</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | DQP can graphic design</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1159,7 +1168,7 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1208,7 @@
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
@@ -1227,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="10">
         <v>3000</v>
@@ -1235,13 +1244,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8" s="10">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10">
         <v>500</v>
@@ -1257,7 +1266,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
@@ -1267,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1278,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10">
         <v>500</v>
@@ -1289,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10">
         <v>500</v>
@@ -1300,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -1311,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10">
         <v>400</v>
@@ -1322,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10">
         <v>200</v>
@@ -1333,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="10">
         <v>500</v>
@@ -1351,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10">
         <v>500</v>
@@ -1369,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1380,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1391,7 +1400,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="10">
         <v>182</v>
@@ -1402,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C24" s="10">
         <v>180</v>
@@ -1413,7 +1422,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -1429,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="10">
         <v>306</v>
@@ -1447,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="10">
         <v>600</v>
@@ -1458,16 +1467,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1475,10 +1484,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1512,7 +1521,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>9518</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,14 +1544,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -1552,10 +1561,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="10">
-        <v>945</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" s="10">
         <v>3600</v>
@@ -1574,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10">
         <v>520</v>
@@ -1585,7 +1594,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C45" s="10">
         <v>300</v>
@@ -1596,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C46" s="10">
         <v>232</v>
@@ -1607,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C47" s="10">
         <v>258</v>
@@ -1618,10 +1627,10 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="10">
-        <v>1700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,7 +1640,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>7555</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1674,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>9518</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1684,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>7555</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,7 +1694,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>17073</v>
+        <v>16728</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1731,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="10"/>
     </row>
@@ -1780,7 +1789,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>17073</v>
+        <v>16728</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1809,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-17073</v>
+        <v>-16728</v>
       </c>
     </row>
   </sheetData>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\idea_opera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CC3CB-D61C-4BAD-838E-658E0444E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE1740-0332-4645-85F5-E9743C92BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>Vocalist fees</t>
   </si>
@@ -208,12 +208,6 @@
 Librettist(s) [David Quang Pham]</t>
   </si>
   <si>
-    <t>125 prints of 12-page programs (playbillder.com/pub/print_service_pricing)</t>
-  </si>
-  <si>
-    <t>College Park Marriott Hotel (DQP stayed in 2017 &amp; 2019)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -236,9 +230,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.care.com/c/how-much-does-child-care-cost</t>
-  </si>
-  <si>
     <r>
       <t>Composer commissioning fee</t>
     </r>
@@ -269,32 +260,12 @@
     </r>
   </si>
   <si>
-    <t>JLC: NY &lt;=&gt; MD ($79) &amp; DQP: MI &lt;=&gt; MD ($227) | (fueleconomy.gov/trip/)</t>
-  </si>
-  <si>
-    <r>
-      <t>https://www.ellipsesplay.com/events/idea_opera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> |DQP has a UI/UX background</t>
-    </r>
-  </si>
-  <si>
     <t>JAE</t>
   </si>
   <si>
     <t>Legend: DQP = author | JLC = facilitator, general manager | JAE = dramaturg</t>
   </si>
   <si>
-    <t>4 different crowdsourcing/fundraising platforms used by JLC</t>
-  </si>
-  <si>
     <t>DQP is in TRU Producer Development &amp; Mentorship Program until January 2022</t>
   </si>
   <si>
@@ -386,33 +357,18 @@
     </r>
   </si>
   <si>
-    <t>Prospective: St. Augustine Catholic Church, Washington, D.C.</t>
-  </si>
-  <si>
-    <t>Fees paid to ticketing platform based on 200 sales by JLC</t>
-  </si>
-  <si>
     <t>Venue cost based on OA's concert hall at the rate of $200/day (JLC's experience)</t>
   </si>
   <si>
-    <t>4 nights ($125+/two-bed room) for JLC &amp; DQP</t>
-  </si>
-  <si>
     <t>Instrumentalist fees</t>
   </si>
   <si>
-    <t>Accessibility: contingency funds for 6 personnel or daily occurrences</t>
-  </si>
-  <si>
     <t>Other grant 1 (Yip Harburg Foundation)</t>
   </si>
   <si>
     <t>3 workshops (2 rehearsal workshop, 1 showcase workshop)</t>
   </si>
   <si>
-    <t>Based on Musical Monument's budget (https://youtu.be/mj61UdV1cTs) by JLC</t>
-  </si>
-  <si>
     <t>Videographer (ViOp affiliate)</t>
   </si>
   <si>
@@ -462,9 +418,6 @@
     <t>$45 for 3 breakfasts, lunches, dinners for 20 personnel</t>
   </si>
   <si>
-    <t>Requested: $3,200 ($3,110 ineligable expenses minus admin.) | Status: Pending</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -497,6 +450,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Accessibility: contingency funds for 6 personnel or daily occurrences (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.care.com/c/how-much-does-child-care-cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>College Park, MD&lt;=&gt;Washington, D.C. ($4)(10 performers + 2 instrumentalists)(3 days)</t>
+  </si>
+  <si>
+    <t>ViOp has lighting equipment at their disposal</t>
+  </si>
+  <si>
+    <t>Consideration: UMD Observatory tour before the workshop</t>
+  </si>
+  <si>
+    <t>MD and DC-based Performers</t>
+  </si>
+  <si>
+    <t>4 nights ($125+/room) for JLC &amp; DQP | College Park Marriott (DQP stayed in 2017 &amp; 2019)</t>
+  </si>
+  <si>
+    <t>Continency fund for a baby grand piano if venue that JLC partners with has no piano</t>
+  </si>
+  <si>
+    <t>Requested: $3,100 ($3,015 ineligible expenses minus admin.) | Status: Pending</t>
+  </si>
+  <si>
+    <t>Fees paid to ticketing platform based on 200 sales by JLC's ViOp</t>
+  </si>
+  <si>
+    <t>4 different crowdsourcing/fundraising platforms used by JLC's ViOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Based on Musical Monument's budget (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://youtu.be/mj61UdV1cTs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) by JLC's ViOp</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ellipsesplay.com/events/idea_opera | DQP has a UI/UX background</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Samples: </t>
     </r>
     <r>
@@ -517,7 +562,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> | DQP can graphic design</t>
+      <t xml:space="preserve"> | DQP is a freelance graphic designer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NY&lt;=&gt;MD ($79)(JLC) &amp; MI&lt;=&gt;MD ($227)(DQP) &amp; UMD&lt;=&gt;DC ($4)(8 members)(3 days) (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://fueleconomy.gov/trip/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Possible (also rehearsal venue): St. Augustine's Episcopal Church, Washington, D.C.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">125 prints of 12-page programs (DQP's experience with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.allegramarketingprint.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -763,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -837,6 +947,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,7 +1281,7 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1182,43 +1295,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="38"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
@@ -1236,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10">
         <v>3000</v>
@@ -1244,10 +1358,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10">
         <v>1000</v>
@@ -1258,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10">
         <v>500</v>
@@ -1266,7 +1380,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
@@ -1276,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1287,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10">
         <v>500</v>
@@ -1298,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="10">
         <v>500</v>
@@ -1309,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="10">
         <v>500</v>
@@ -1320,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C15" s="10">
         <v>400</v>
@@ -1331,49 +1445,55 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C16" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1384,110 +1504,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
+      <c r="B23" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="10">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>77</v>
+      <c r="B24" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="C24" s="10">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>59</v>
-      </c>
+      <c r="B25" s="45"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
+      <c r="B27" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="C27" s="10">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C29" s="10">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1521,15 +1647,15 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>10018</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -1544,14 +1670,14 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -1561,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C42" s="10">
         <v>900</v>
@@ -1572,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C43" s="10">
         <v>3600</v>
@@ -1583,10 +1709,10 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C44" s="10">
-        <v>520</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,7 +1720,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C45" s="10">
         <v>300</v>
@@ -1605,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C46" s="10">
         <v>232</v>
@@ -1616,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C47" s="10">
         <v>258</v>
@@ -1627,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C48" s="10">
         <v>900</v>
@@ -1640,7 +1766,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42">
         <f>SUM(C40:C48)</f>
-        <v>6710</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,23 +1775,23 @@
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
@@ -1674,7 +1800,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>10018</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1810,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="18">
         <f>C49</f>
-        <v>6710</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,7 +1820,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>16728</v>
+        <v>17221</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1857,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="10"/>
     </row>
@@ -1789,7 +1915,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>16728</v>
+        <v>17221</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1935,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-16728</v>
+        <v>-17221</v>
       </c>
     </row>
   </sheetData>
@@ -1830,13 +1956,17 @@
     <hyperlink ref="B12" r:id="rId6" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{520E334E-E529-47B8-9E4D-CABE3E0F9A92}"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
     <hyperlink ref="B19" r:id="rId8" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{C4E0C2CA-24D3-4B05-8E4E-16E2567874F1}"/>
-    <hyperlink ref="B22" r:id="rId10" display="https://www.ellipsesplay.com/events/idea_opera |DQP has UI/UX background" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
-    <hyperlink ref="B21" r:id="rId12" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
+    <hyperlink ref="B8" r:id="rId10" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
+    <hyperlink ref="B21" r:id="rId11" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
+    <hyperlink ref="B24" r:id="rId12" display="https://www.care.com/c/how-much-does-child-care-cost" xr:uid="{DAF96DB5-4105-413C-BF83-5F018F5E6E94}"/>
+    <hyperlink ref="B27" r:id="rId13" display="https://fueleconomy.gov/trip/" xr:uid="{704387D6-CCDF-46AC-A9D8-3D429B65246A}"/>
+    <hyperlink ref="B23" r:id="rId14" display="https://www.allegramarketingprint.com" xr:uid="{A2AE6F88-F69C-4E10-A8C4-F2F234ACD047}"/>
+    <hyperlink ref="B31" r:id="rId15" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{09467943-BECE-43BD-A0E3-F7AA8B74928F}"/>
+    <hyperlink ref="B32" r:id="rId16" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{1B0AB79B-6AD2-4CFF-9EE9-4B49A0D1FA23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId13"/>
+  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\idea_opera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE1740-0332-4645-85F5-E9743C92BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE984392-8DCC-449F-B2AE-3AD26268FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,9 +480,6 @@
     <t>ViOp has lighting equipment at their disposal</t>
   </si>
   <si>
-    <t>Consideration: UMD Observatory tour before the workshop</t>
-  </si>
-  <si>
     <t>MD and DC-based Performers</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.ellipsesplay.com/events/idea_opera | DQP has a UI/UX background</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -597,9 +591,6 @@
     </r>
   </si>
   <si>
-    <t>Possible (also rehearsal venue): St. Augustine's Episcopal Church, Washington, D.C.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -628,6 +619,26 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consideration: UMD Observatory/Goddard Space Flight Center tour before the workshop</t>
+  </si>
+  <si>
+    <t>Options: St. Augustine's Episcopal Church, Washington, D.C./Barney &amp; Bea Rec. Center</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.ellipsesplay.com/events/idea_opera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | DQP has a UI/UX background</t>
     </r>
   </si>
 </sst>
@@ -1487,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10">
         <v>350</v>
@@ -1498,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1509,7 +1520,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1520,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C23" s="10">
         <v>180</v>
@@ -1550,7 +1561,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C26" s="10"/>
     </row>
@@ -1559,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="10">
         <v>402</v>
@@ -1582,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="10">
         <v>600</v>
@@ -1593,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="10"/>
     </row>
@@ -1602,7 +1613,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1613,7 +1624,7 @@
         <v>71</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1731,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="10">
         <v>232</v>
@@ -1742,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="10">
         <v>258</v>
@@ -1860,7 +1871,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="10"/>
     </row>
@@ -1956,14 +1967,14 @@
     <hyperlink ref="B12" r:id="rId6" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{520E334E-E529-47B8-9E4D-CABE3E0F9A92}"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
     <hyperlink ref="B19" r:id="rId8" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
-    <hyperlink ref="B22" r:id="rId9" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
-    <hyperlink ref="B8" r:id="rId10" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
-    <hyperlink ref="B21" r:id="rId11" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
-    <hyperlink ref="B24" r:id="rId12" display="https://www.care.com/c/how-much-does-child-care-cost" xr:uid="{DAF96DB5-4105-413C-BF83-5F018F5E6E94}"/>
-    <hyperlink ref="B27" r:id="rId13" display="https://fueleconomy.gov/trip/" xr:uid="{704387D6-CCDF-46AC-A9D8-3D429B65246A}"/>
-    <hyperlink ref="B23" r:id="rId14" display="https://www.allegramarketingprint.com" xr:uid="{A2AE6F88-F69C-4E10-A8C4-F2F234ACD047}"/>
-    <hyperlink ref="B31" r:id="rId15" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{09467943-BECE-43BD-A0E3-F7AA8B74928F}"/>
-    <hyperlink ref="B32" r:id="rId16" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{1B0AB79B-6AD2-4CFF-9EE9-4B49A0D1FA23}"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
+    <hyperlink ref="B21" r:id="rId10" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
+    <hyperlink ref="B24" r:id="rId11" display="https://www.care.com/c/how-much-does-child-care-cost" xr:uid="{DAF96DB5-4105-413C-BF83-5F018F5E6E94}"/>
+    <hyperlink ref="B27" r:id="rId12" display="https://fueleconomy.gov/trip/" xr:uid="{704387D6-CCDF-46AC-A9D8-3D429B65246A}"/>
+    <hyperlink ref="B23" r:id="rId13" display="https://www.allegramarketingprint.com" xr:uid="{A2AE6F88-F69C-4E10-A8C4-F2F234ACD047}"/>
+    <hyperlink ref="B31" r:id="rId14" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{09467943-BECE-43BD-A0E3-F7AA8B74928F}"/>
+    <hyperlink ref="B32" r:id="rId15" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{1B0AB79B-6AD2-4CFF-9EE9-4B49A0D1FA23}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\idea_opera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE984392-8DCC-449F-B2AE-3AD26268FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA95DB0A-1C89-4679-879F-064DE9B0D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>Vocalist fees</t>
   </si>
@@ -640,6 +640,9 @@
       </rPr>
       <t xml:space="preserve"> | DQP has a UI/UX background</t>
     </r>
+  </si>
+  <si>
+    <t>Inclusion: fashion illustrations (especially if costume design is not utilized)</t>
   </si>
 </sst>
 </file>
@@ -1557,13 +1560,15 @@
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C26" s="10">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1575,7 +1580,6 @@
       <c r="C27" s="10">
         <v>402</v>
       </c>
-      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
@@ -1641,7 +1645,9 @@
       <c r="A34" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,7 +1664,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="11">
         <f>SUM(C7:C35)</f>
-        <v>10606</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1817,7 @@
       <c r="B55" s="15"/>
       <c r="C55" s="16">
         <f>C36</f>
-        <v>10606</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,7 +1837,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="20">
         <f>SUM(C55:C56)</f>
-        <v>17221</v>
+        <v>17311</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,7 +1932,7 @@
       <c r="B70" s="26"/>
       <c r="C70" s="27">
         <f>C57</f>
-        <v>17221</v>
+        <v>17311</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,7 +1952,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="33">
         <f>SUM(C71-C70)</f>
-        <v>-17221</v>
+        <v>-17311</v>
       </c>
     </row>
   </sheetData>

--- a/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
+++ b/events/considerations/2021-9-22/idea-opera-grants-2021-2022-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\badas\Documents\GitHub\ellipsesplay.github.io\events\idea_opera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA95DB0A-1C89-4679-879F-064DE9B0D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC9CA5-7AED-4215-9823-4AAB21B06288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,14 +393,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Guitarist &amp; Pianist ($500each) Resources: </t>
+    <t>$45 for 3 breakfasts, lunches, dinners for 20 personnel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 ($300each) | Resources: </t>
     </r>
     <r>
       <rPr>
@@ -411,238 +414,196 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
+    </r>
+  </si>
+  <si>
+    <t>Props are necessary ($300) and 10 celestial costumes ($60each) are optional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessibility: contingency funds for 6 personnel or daily occurrences (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.care.com/c/how-much-does-child-care-cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>College Park, MD&lt;=&gt;Washington, D.C. ($4)(10 performers + 2 instrumentalists)(3 days)</t>
+  </si>
+  <si>
+    <t>ViOp has lighting equipment at their disposal</t>
+  </si>
+  <si>
+    <t>MD and DC-based Performers</t>
+  </si>
+  <si>
+    <t>4 nights ($125+/room) for JLC &amp; DQP | College Park Marriott (DQP stayed in 2017 &amp; 2019)</t>
+  </si>
+  <si>
+    <t>Continency fund for a baby grand piano if venue that JLC partners with has no piano</t>
+  </si>
+  <si>
+    <t>Requested: $3,100 ($3,015 ineligible expenses minus admin.) | Status: Pending</t>
+  </si>
+  <si>
+    <t>Fees paid to ticketing platform based on 200 sales by JLC's ViOp</t>
+  </si>
+  <si>
+    <t>4 different crowdsourcing/fundraising platforms used by JLC's ViOp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Based on Musical Monument's budget (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://youtu.be/mj61UdV1cTs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) by JLC's ViOp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NY&lt;=&gt;MD ($79)(JLC) &amp; MI&lt;=&gt;MD ($227)(DQP) &amp; UMD&lt;=&gt;DC ($4)(8 members)(3 days) (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://fueleconomy.gov/trip/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">125 prints of 12-page programs (DQP's experience with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.allegramarketingprint.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consideration: UMD Observatory/Goddard Space Flight Center tour before the workshop</t>
+  </si>
+  <si>
+    <t>Options: St. Augustine's Episcopal Church, Washington, D.C./Barney &amp; Bea Rec. Center</t>
+  </si>
+  <si>
+    <t>Inclusion: fashion illustrations (especially if costume design is not utilized)</t>
+  </si>
+  <si>
+    <t>https://www.ellipsesplay.com</t>
+  </si>
+  <si>
+    <t>DQP has a UI/UX background and a design skillset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Guitarist &amp; Pianist | Resources: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>https://www.ellipsesplay.com/events/idea_opera/instrumentalist</t>
     </r>
-  </si>
-  <si>
-    <t>$45 for 3 breakfasts, lunches, dinners for 20 personnel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 ($300each) | Resources: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/events/idea_opera/performers</t>
-    </r>
-  </si>
-  <si>
-    <t>Props are necessary ($300) and 10 celestial costumes ($60each) are optional</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accessibility: contingency funds for 6 personnel or daily occurrences (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.care.com/c/how-much-does-child-care-cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>College Park, MD&lt;=&gt;Washington, D.C. ($4)(10 performers + 2 instrumentalists)(3 days)</t>
-  </si>
-  <si>
-    <t>ViOp has lighting equipment at their disposal</t>
-  </si>
-  <si>
-    <t>MD and DC-based Performers</t>
-  </si>
-  <si>
-    <t>4 nights ($125+/room) for JLC &amp; DQP | College Park Marriott (DQP stayed in 2017 &amp; 2019)</t>
-  </si>
-  <si>
-    <t>Continency fund for a baby grand piano if venue that JLC partners with has no piano</t>
-  </si>
-  <si>
-    <t>Requested: $3,100 ($3,015 ineligible expenses minus admin.) | Status: Pending</t>
-  </si>
-  <si>
-    <t>Fees paid to ticketing platform based on 200 sales by JLC's ViOp</t>
-  </si>
-  <si>
-    <t>4 different crowdsourcing/fundraising platforms used by JLC's ViOp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Based on Musical Monument's budget (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://youtu.be/mj61UdV1cTs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) by JLC's ViOp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Samples: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.ellipsesplay.com/graphics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | DQP is a freelance graphic designer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NY&lt;=&gt;MD ($79)(JLC) &amp; MI&lt;=&gt;MD ($227)(DQP) &amp; UMD&lt;=&gt;DC ($4)(8 members)(3 days) (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://fueleconomy.gov/trip/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">125 prints of 12-page programs (DQP's experience with </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.allegramarketingprint.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Consideration: UMD Observatory/Goddard Space Flight Center tour before the workshop</t>
-  </si>
-  <si>
-    <t>Options: St. Augustine's Episcopal Church, Washington, D.C./Barney &amp; Bea Rec. Center</t>
-  </si>
-  <si>
-    <r>
-      <t>https://www.ellipsesplay.com/events/idea_opera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | DQP has a UI/UX background</t>
-    </r>
-  </si>
-  <si>
-    <t>Inclusion: fashion illustrations (especially if costume design is not utilized)</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10">
         <v>3000</v>
@@ -1375,7 +1336,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C8" s="10">
         <v>1000</v>
@@ -1459,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10">
         <v>200</v>
@@ -1481,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="10"/>
     </row>
@@ -1501,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10">
         <v>350</v>
@@ -1511,8 +1472,8 @@
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>88</v>
+      <c r="B21" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1523,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1534,7 +1495,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10">
         <v>180</v>
@@ -1546,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="10">
         <v>180</v>
@@ -1564,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="10">
         <v>90</v>
@@ -1575,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="10">
         <v>402</v>
@@ -1586,7 +1547,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="10">
         <v>144</v>
@@ -1597,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10">
         <v>600</v>
@@ -1608,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="10"/>
     </row>
@@ -1617,7 +1578,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="10">
         <v>500</v>
@@ -1628,7 +1589,7 @@
         <v>71</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="10">
         <v>150</v>
@@ -1646,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="10"/>
     </row>
@@ -1704,7 +1665,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10">
         <v>900</v>
@@ -1748,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="10">
         <v>232</v>
@@ -1759,7 +1720,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="10">
         <v>258</v>
@@ -1770,7 +1731,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="10">
         <v>900</v>
@@ -1877,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="10"/>
     </row>
@@ -1974,16 +1935,15 @@
     <hyperlink ref="B17" r:id="rId7" display="https://www.ellipsesplay.com/events/idea_opera/stage_director" xr:uid="{FAA51AA9-D9F2-4AF4-BF13-DA99D30038C4}"/>
     <hyperlink ref="B19" r:id="rId8" display="https://hartfordrents.com/locations/baltimore-md-audio-rental/" xr:uid="{F1C29505-C0C1-4330-A713-178533B645DA}"/>
     <hyperlink ref="B8" r:id="rId9" display="https://www.ellipsesplay.com/events/idea_opera/instrumentalist" xr:uid="{8DF059BA-7E42-4FD6-A949-59403FB7EBD8}"/>
-    <hyperlink ref="B21" r:id="rId10" display="https://www.ellipsesplay.com/graphics" xr:uid="{E2B34074-9E98-4029-A043-66EB27ADE399}"/>
-    <hyperlink ref="B24" r:id="rId11" display="https://www.care.com/c/how-much-does-child-care-cost" xr:uid="{DAF96DB5-4105-413C-BF83-5F018F5E6E94}"/>
-    <hyperlink ref="B27" r:id="rId12" display="https://fueleconomy.gov/trip/" xr:uid="{704387D6-CCDF-46AC-A9D8-3D429B65246A}"/>
-    <hyperlink ref="B23" r:id="rId13" display="https://www.allegramarketingprint.com" xr:uid="{A2AE6F88-F69C-4E10-A8C4-F2F234ACD047}"/>
-    <hyperlink ref="B31" r:id="rId14" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{09467943-BECE-43BD-A0E3-F7AA8B74928F}"/>
-    <hyperlink ref="B32" r:id="rId15" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{1B0AB79B-6AD2-4CFF-9EE9-4B49A0D1FA23}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{5D6EC985-8AAF-4554-AA4A-3E3420E4E1CF}"/>
+    <hyperlink ref="B24" r:id="rId10" display="https://www.care.com/c/how-much-does-child-care-cost" xr:uid="{DAF96DB5-4105-413C-BF83-5F018F5E6E94}"/>
+    <hyperlink ref="B27" r:id="rId11" display="https://fueleconomy.gov/trip/" xr:uid="{704387D6-CCDF-46AC-A9D8-3D429B65246A}"/>
+    <hyperlink ref="B23" r:id="rId12" display="https://www.allegramarketingprint.com" xr:uid="{A2AE6F88-F69C-4E10-A8C4-F2F234ACD047}"/>
+    <hyperlink ref="B31" r:id="rId13" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{09467943-BECE-43BD-A0E3-F7AA8B74928F}"/>
+    <hyperlink ref="B32" r:id="rId14" display="https://youtu.be/mj61UdV1cTs) by JLC" xr:uid="{1B0AB79B-6AD2-4CFF-9EE9-4B49A0D1FA23}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{3C73AAA0-BD74-4E92-AB90-BF41FB2DEE61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId17"/>
+  <pageSetup scale="76" fitToHeight="2" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>